--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value175.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value175.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.346468731844701</v>
+        <v>1.551048874855042</v>
       </c>
       <c r="B1">
-        <v>1.531372305078128</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.889943064294136</v>
+        <v>4.572749614715576</v>
       </c>
       <c r="D1">
-        <v>3.398195242719</v>
+        <v>2.273092985153198</v>
       </c>
       <c r="E1">
-        <v>0.8371592306955833</v>
+        <v>1.808940649032593</v>
       </c>
     </row>
   </sheetData>
